--- a/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
+++ b/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,185 +452,433 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>396</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>258</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>153</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>256</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>70</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>412</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45390</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45397</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>12</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>92</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45425</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45432</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45446</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>630</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45453</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>942</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45467</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45474</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B24" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B55" t="n">
         <v>192</v>
       </c>
     </row>
@@ -645,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,57 +915,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>663</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>330</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>366</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>448</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>150</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>1604</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>192</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
+++ b/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,353 +532,313 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>164</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>112</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>142</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>162</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>347</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45200.99999999999</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>29</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45235.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>176</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>210</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>72</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>362</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>396</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>258</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>153</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>114</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>256</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>412</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>12</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>28</v>
+        <v>942</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45438.99999999999</v>
-      </c>
-      <c r="B51" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45452.99999999999</v>
-      </c>
-      <c r="B52" t="n">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45459.99999999999</v>
-      </c>
-      <c r="B53" t="n">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45473.99999999999</v>
-      </c>
-      <c r="B54" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45480.99999999999</v>
-      </c>
-      <c r="B55" t="n">
         <v>192</v>
       </c>
     </row>
@@ -893,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,113 +899,97 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45107.99999999999</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>304</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45169.99999999999</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>347</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45199.99999999999</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>104</v>
+        <v>852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45230.99999999999</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>221</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45260.99999999999</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>852</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45291.99999999999</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45322.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>663</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45351.99999999999</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>330</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>366</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45412.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>448</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45473.99999999999</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45504.99999999999</v>
-      </c>
-      <c r="B18" t="n">
         <v>192</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
+++ b/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -991,6 +992,845 @@
       </c>
       <c r="B16" t="n">
         <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>125</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-105.4592128923455</v>
+      </c>
+      <c r="D2" t="n">
+        <v>351.9174648135174</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>126</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-95.12906151079086</v>
+      </c>
+      <c r="D3" t="n">
+        <v>342.2976826802428</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>126</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-105.0403290320058</v>
+      </c>
+      <c r="D4" t="n">
+        <v>345.6976175804758</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>127</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-84.37971336992382</v>
+      </c>
+      <c r="D5" t="n">
+        <v>360.6152622669971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>127</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-113.6191637163692</v>
+      </c>
+      <c r="D6" t="n">
+        <v>360.9335697239458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>127</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-92.1067422080724</v>
+      </c>
+      <c r="D7" t="n">
+        <v>339.2011432125562</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>128</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-103.8464182295613</v>
+      </c>
+      <c r="D8" t="n">
+        <v>361.0518096717302</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>128</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-117.3892671513755</v>
+      </c>
+      <c r="D9" t="n">
+        <v>352.6937040672702</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>129</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-106.1967550606527</v>
+      </c>
+      <c r="D10" t="n">
+        <v>373.3831596645383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>129</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-101.7807863272088</v>
+      </c>
+      <c r="D11" t="n">
+        <v>362.9878039422624</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>137</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-89.67679751694551</v>
+      </c>
+      <c r="D12" t="n">
+        <v>345.6600499721617</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>138</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-91.46237736880194</v>
+      </c>
+      <c r="D13" t="n">
+        <v>384.5022313337099</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>139</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-84.32247613419759</v>
+      </c>
+      <c r="D14" t="n">
+        <v>358.7846510906555</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>139</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-90.84480578692907</v>
+      </c>
+      <c r="D15" t="n">
+        <v>372.9522420154984</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>139</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-89.00993142845812</v>
+      </c>
+      <c r="D16" t="n">
+        <v>359.920997618648</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>140</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-90.53316187355243</v>
+      </c>
+      <c r="D17" t="n">
+        <v>355.7818418743908</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>140</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-90.56108328337446</v>
+      </c>
+      <c r="D18" t="n">
+        <v>364.6980385732058</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>140</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-95.847968469782</v>
+      </c>
+      <c r="D19" t="n">
+        <v>367.0199683439031</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>141</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-71.22384515749381</v>
+      </c>
+      <c r="D20" t="n">
+        <v>363.4327917680287</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>141</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-80.59488135768714</v>
+      </c>
+      <c r="D21" t="n">
+        <v>373.2711234344823</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>142</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-81.30632858681238</v>
+      </c>
+      <c r="D22" t="n">
+        <v>371.8123606388629</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>142</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-97.34268713635853</v>
+      </c>
+      <c r="D23" t="n">
+        <v>362.6248534650116</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>142</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-100.2611676291078</v>
+      </c>
+      <c r="D24" t="n">
+        <v>374.5670241529363</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>143</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-78.80451091241494</v>
+      </c>
+      <c r="D25" t="n">
+        <v>396.0502178884693</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>143</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-102.7126208149472</v>
+      </c>
+      <c r="D26" t="n">
+        <v>378.7802665961119</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>143</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-81.80518887199358</v>
+      </c>
+      <c r="D27" t="n">
+        <v>386.8430175886637</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>145</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-68.54447686283127</v>
+      </c>
+      <c r="D28" t="n">
+        <v>374.5859911548584</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>145</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-95.12244695301725</v>
+      </c>
+      <c r="D29" t="n">
+        <v>362.9953125566692</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>146</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-65.6123097415045</v>
+      </c>
+      <c r="D30" t="n">
+        <v>378.9992121181263</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>146</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-76.59936498666315</v>
+      </c>
+      <c r="D31" t="n">
+        <v>373.7792213909237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>147</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-77.62536215378427</v>
+      </c>
+      <c r="D32" t="n">
+        <v>373.2532577366288</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>147</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-88.65958323878623</v>
+      </c>
+      <c r="D33" t="n">
+        <v>377.7431011310586</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>147</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-86.51921874671862</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373.926709957817</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>148</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-92.52482069519348</v>
+      </c>
+      <c r="D35" t="n">
+        <v>371.623527627217</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>148</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-70.32790516322851</v>
+      </c>
+      <c r="D36" t="n">
+        <v>378.4404716060225</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>149</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-74.77958571830109</v>
+      </c>
+      <c r="D37" t="n">
+        <v>387.4821473047028</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>149</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-81.86361931572439</v>
+      </c>
+      <c r="D38" t="n">
+        <v>364.8490154722206</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>149</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-79.80381091439799</v>
+      </c>
+      <c r="D39" t="n">
+        <v>377.9798084035903</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>150</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-83.24814662731232</v>
+      </c>
+      <c r="D40" t="n">
+        <v>384.3158432274022</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>150</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-90.59629394555424</v>
+      </c>
+      <c r="D41" t="n">
+        <v>359.1923409674858</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>150</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-79.73510147247153</v>
+      </c>
+      <c r="D42" t="n">
+        <v>381.2464778449815</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>151</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-85.58206228709399</v>
+      </c>
+      <c r="D43" t="n">
+        <v>388.7532749676544</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>151</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-59.95509580648088</v>
+      </c>
+      <c r="D44" t="n">
+        <v>383.3195811331963</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>152</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-74.23499232976349</v>
+      </c>
+      <c r="D45" t="n">
+        <v>383.5103324931361</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>152</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-67.4542698700667</v>
+      </c>
+      <c r="D46" t="n">
+        <v>392.9819555604608</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>153</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-87.61796905807117</v>
+      </c>
+      <c r="D47" t="n">
+        <v>366.2803850551072</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>153</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-76.45077894328875</v>
+      </c>
+      <c r="D48" t="n">
+        <v>364.130584124212</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>154</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-55.16146353430112</v>
+      </c>
+      <c r="D49" t="n">
+        <v>380.1107633603912</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>154</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-70.47957703015868</v>
+      </c>
+      <c r="D50" t="n">
+        <v>391.3581112495831</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>155</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-77.43573425549353</v>
+      </c>
+      <c r="D51" t="n">
+        <v>392.590726716648</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>155</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-79.27287783552715</v>
+      </c>
+      <c r="D52" t="n">
+        <v>390.0958235123881</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>155</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-77.78233669060548</v>
+      </c>
+      <c r="D53" t="n">
+        <v>367.6901470321844</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>156</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-75.04382596232981</v>
+      </c>
+      <c r="D54" t="n">
+        <v>375.5435884587087</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>156</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-60.92234285668302</v>
+      </c>
+      <c r="D55" t="n">
+        <v>381.6946714610437</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>156</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-76.7494381547759</v>
+      </c>
+      <c r="D56" t="n">
+        <v>373.9238041459069</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>157</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-89.20500895884156</v>
+      </c>
+      <c r="D57" t="n">
+        <v>384.4940158616038</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>157</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-74.43807878094991</v>
+      </c>
+      <c r="D58" t="n">
+        <v>362.4692635312307</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
+++ b/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
@@ -1005,7 +1005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1024,16 +1024,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1042,12 +1032,6 @@
       <c r="B2" t="n">
         <v>125</v>
       </c>
-      <c r="C2" t="n">
-        <v>-105.4592128923455</v>
-      </c>
-      <c r="D2" t="n">
-        <v>351.9174648135174</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1056,12 +1040,6 @@
       <c r="B3" t="n">
         <v>126</v>
       </c>
-      <c r="C3" t="n">
-        <v>-95.12906151079086</v>
-      </c>
-      <c r="D3" t="n">
-        <v>342.2976826802428</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1070,12 +1048,6 @@
       <c r="B4" t="n">
         <v>126</v>
       </c>
-      <c r="C4" t="n">
-        <v>-105.0403290320058</v>
-      </c>
-      <c r="D4" t="n">
-        <v>345.6976175804758</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1084,12 +1056,6 @@
       <c r="B5" t="n">
         <v>127</v>
       </c>
-      <c r="C5" t="n">
-        <v>-84.37971336992382</v>
-      </c>
-      <c r="D5" t="n">
-        <v>360.6152622669971</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1098,12 +1064,6 @@
       <c r="B6" t="n">
         <v>127</v>
       </c>
-      <c r="C6" t="n">
-        <v>-113.6191637163692</v>
-      </c>
-      <c r="D6" t="n">
-        <v>360.9335697239458</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1112,12 +1072,6 @@
       <c r="B7" t="n">
         <v>127</v>
       </c>
-      <c r="C7" t="n">
-        <v>-92.1067422080724</v>
-      </c>
-      <c r="D7" t="n">
-        <v>339.2011432125562</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1126,12 +1080,6 @@
       <c r="B8" t="n">
         <v>128</v>
       </c>
-      <c r="C8" t="n">
-        <v>-103.8464182295613</v>
-      </c>
-      <c r="D8" t="n">
-        <v>361.0518096717302</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1140,12 +1088,6 @@
       <c r="B9" t="n">
         <v>128</v>
       </c>
-      <c r="C9" t="n">
-        <v>-117.3892671513755</v>
-      </c>
-      <c r="D9" t="n">
-        <v>352.6937040672702</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1154,12 +1096,6 @@
       <c r="B10" t="n">
         <v>129</v>
       </c>
-      <c r="C10" t="n">
-        <v>-106.1967550606527</v>
-      </c>
-      <c r="D10" t="n">
-        <v>373.3831596645383</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1168,12 +1104,6 @@
       <c r="B11" t="n">
         <v>129</v>
       </c>
-      <c r="C11" t="n">
-        <v>-101.7807863272088</v>
-      </c>
-      <c r="D11" t="n">
-        <v>362.9878039422624</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1182,12 +1112,6 @@
       <c r="B12" t="n">
         <v>137</v>
       </c>
-      <c r="C12" t="n">
-        <v>-89.67679751694551</v>
-      </c>
-      <c r="D12" t="n">
-        <v>345.6600499721617</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1196,12 +1120,6 @@
       <c r="B13" t="n">
         <v>138</v>
       </c>
-      <c r="C13" t="n">
-        <v>-91.46237736880194</v>
-      </c>
-      <c r="D13" t="n">
-        <v>384.5022313337099</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1210,12 +1128,6 @@
       <c r="B14" t="n">
         <v>139</v>
       </c>
-      <c r="C14" t="n">
-        <v>-84.32247613419759</v>
-      </c>
-      <c r="D14" t="n">
-        <v>358.7846510906555</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1224,12 +1136,6 @@
       <c r="B15" t="n">
         <v>139</v>
       </c>
-      <c r="C15" t="n">
-        <v>-90.84480578692907</v>
-      </c>
-      <c r="D15" t="n">
-        <v>372.9522420154984</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1238,12 +1144,6 @@
       <c r="B16" t="n">
         <v>139</v>
       </c>
-      <c r="C16" t="n">
-        <v>-89.00993142845812</v>
-      </c>
-      <c r="D16" t="n">
-        <v>359.920997618648</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1252,12 +1152,6 @@
       <c r="B17" t="n">
         <v>140</v>
       </c>
-      <c r="C17" t="n">
-        <v>-90.53316187355243</v>
-      </c>
-      <c r="D17" t="n">
-        <v>355.7818418743908</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1266,12 +1160,6 @@
       <c r="B18" t="n">
         <v>140</v>
       </c>
-      <c r="C18" t="n">
-        <v>-90.56108328337446</v>
-      </c>
-      <c r="D18" t="n">
-        <v>364.6980385732058</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1280,12 +1168,6 @@
       <c r="B19" t="n">
         <v>140</v>
       </c>
-      <c r="C19" t="n">
-        <v>-95.847968469782</v>
-      </c>
-      <c r="D19" t="n">
-        <v>367.0199683439031</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1294,12 +1176,6 @@
       <c r="B20" t="n">
         <v>141</v>
       </c>
-      <c r="C20" t="n">
-        <v>-71.22384515749381</v>
-      </c>
-      <c r="D20" t="n">
-        <v>363.4327917680287</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1308,12 +1184,6 @@
       <c r="B21" t="n">
         <v>141</v>
       </c>
-      <c r="C21" t="n">
-        <v>-80.59488135768714</v>
-      </c>
-      <c r="D21" t="n">
-        <v>373.2711234344823</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1322,12 +1192,6 @@
       <c r="B22" t="n">
         <v>142</v>
       </c>
-      <c r="C22" t="n">
-        <v>-81.30632858681238</v>
-      </c>
-      <c r="D22" t="n">
-        <v>371.8123606388629</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1336,12 +1200,6 @@
       <c r="B23" t="n">
         <v>142</v>
       </c>
-      <c r="C23" t="n">
-        <v>-97.34268713635853</v>
-      </c>
-      <c r="D23" t="n">
-        <v>362.6248534650116</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1350,12 +1208,6 @@
       <c r="B24" t="n">
         <v>142</v>
       </c>
-      <c r="C24" t="n">
-        <v>-100.2611676291078</v>
-      </c>
-      <c r="D24" t="n">
-        <v>374.5670241529363</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1364,12 +1216,6 @@
       <c r="B25" t="n">
         <v>143</v>
       </c>
-      <c r="C25" t="n">
-        <v>-78.80451091241494</v>
-      </c>
-      <c r="D25" t="n">
-        <v>396.0502178884693</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1378,12 +1224,6 @@
       <c r="B26" t="n">
         <v>143</v>
       </c>
-      <c r="C26" t="n">
-        <v>-102.7126208149472</v>
-      </c>
-      <c r="D26" t="n">
-        <v>378.7802665961119</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1392,12 +1232,6 @@
       <c r="B27" t="n">
         <v>143</v>
       </c>
-      <c r="C27" t="n">
-        <v>-81.80518887199358</v>
-      </c>
-      <c r="D27" t="n">
-        <v>386.8430175886637</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1406,12 +1240,6 @@
       <c r="B28" t="n">
         <v>145</v>
       </c>
-      <c r="C28" t="n">
-        <v>-68.54447686283127</v>
-      </c>
-      <c r="D28" t="n">
-        <v>374.5859911548584</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1420,12 +1248,6 @@
       <c r="B29" t="n">
         <v>145</v>
       </c>
-      <c r="C29" t="n">
-        <v>-95.12244695301725</v>
-      </c>
-      <c r="D29" t="n">
-        <v>362.9953125566692</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1434,12 +1256,6 @@
       <c r="B30" t="n">
         <v>146</v>
       </c>
-      <c r="C30" t="n">
-        <v>-65.6123097415045</v>
-      </c>
-      <c r="D30" t="n">
-        <v>378.9992121181263</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1448,12 +1264,6 @@
       <c r="B31" t="n">
         <v>146</v>
       </c>
-      <c r="C31" t="n">
-        <v>-76.59936498666315</v>
-      </c>
-      <c r="D31" t="n">
-        <v>373.7792213909237</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1462,12 +1272,6 @@
       <c r="B32" t="n">
         <v>147</v>
       </c>
-      <c r="C32" t="n">
-        <v>-77.62536215378427</v>
-      </c>
-      <c r="D32" t="n">
-        <v>373.2532577366288</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1476,12 +1280,6 @@
       <c r="B33" t="n">
         <v>147</v>
       </c>
-      <c r="C33" t="n">
-        <v>-88.65958323878623</v>
-      </c>
-      <c r="D33" t="n">
-        <v>377.7431011310586</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1490,12 +1288,6 @@
       <c r="B34" t="n">
         <v>147</v>
       </c>
-      <c r="C34" t="n">
-        <v>-86.51921874671862</v>
-      </c>
-      <c r="D34" t="n">
-        <v>373.926709957817</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1504,12 +1296,6 @@
       <c r="B35" t="n">
         <v>148</v>
       </c>
-      <c r="C35" t="n">
-        <v>-92.52482069519348</v>
-      </c>
-      <c r="D35" t="n">
-        <v>371.623527627217</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1518,12 +1304,6 @@
       <c r="B36" t="n">
         <v>148</v>
       </c>
-      <c r="C36" t="n">
-        <v>-70.32790516322851</v>
-      </c>
-      <c r="D36" t="n">
-        <v>378.4404716060225</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1532,12 +1312,6 @@
       <c r="B37" t="n">
         <v>149</v>
       </c>
-      <c r="C37" t="n">
-        <v>-74.77958571830109</v>
-      </c>
-      <c r="D37" t="n">
-        <v>387.4821473047028</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1546,12 +1320,6 @@
       <c r="B38" t="n">
         <v>149</v>
       </c>
-      <c r="C38" t="n">
-        <v>-81.86361931572439</v>
-      </c>
-      <c r="D38" t="n">
-        <v>364.8490154722206</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1560,12 +1328,6 @@
       <c r="B39" t="n">
         <v>149</v>
       </c>
-      <c r="C39" t="n">
-        <v>-79.80381091439799</v>
-      </c>
-      <c r="D39" t="n">
-        <v>377.9798084035903</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1574,12 +1336,6 @@
       <c r="B40" t="n">
         <v>150</v>
       </c>
-      <c r="C40" t="n">
-        <v>-83.24814662731232</v>
-      </c>
-      <c r="D40" t="n">
-        <v>384.3158432274022</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1588,12 +1344,6 @@
       <c r="B41" t="n">
         <v>150</v>
       </c>
-      <c r="C41" t="n">
-        <v>-90.59629394555424</v>
-      </c>
-      <c r="D41" t="n">
-        <v>359.1923409674858</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1602,12 +1352,6 @@
       <c r="B42" t="n">
         <v>150</v>
       </c>
-      <c r="C42" t="n">
-        <v>-79.73510147247153</v>
-      </c>
-      <c r="D42" t="n">
-        <v>381.2464778449815</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1616,12 +1360,6 @@
       <c r="B43" t="n">
         <v>151</v>
       </c>
-      <c r="C43" t="n">
-        <v>-85.58206228709399</v>
-      </c>
-      <c r="D43" t="n">
-        <v>388.7532749676544</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1630,12 +1368,6 @@
       <c r="B44" t="n">
         <v>151</v>
       </c>
-      <c r="C44" t="n">
-        <v>-59.95509580648088</v>
-      </c>
-      <c r="D44" t="n">
-        <v>383.3195811331963</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1644,12 +1376,6 @@
       <c r="B45" t="n">
         <v>152</v>
       </c>
-      <c r="C45" t="n">
-        <v>-74.23499232976349</v>
-      </c>
-      <c r="D45" t="n">
-        <v>383.5103324931361</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1658,12 +1384,6 @@
       <c r="B46" t="n">
         <v>152</v>
       </c>
-      <c r="C46" t="n">
-        <v>-67.4542698700667</v>
-      </c>
-      <c r="D46" t="n">
-        <v>392.9819555604608</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1672,12 +1392,6 @@
       <c r="B47" t="n">
         <v>153</v>
       </c>
-      <c r="C47" t="n">
-        <v>-87.61796905807117</v>
-      </c>
-      <c r="D47" t="n">
-        <v>366.2803850551072</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1686,12 +1400,6 @@
       <c r="B48" t="n">
         <v>153</v>
       </c>
-      <c r="C48" t="n">
-        <v>-76.45077894328875</v>
-      </c>
-      <c r="D48" t="n">
-        <v>364.130584124212</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1700,12 +1408,6 @@
       <c r="B49" t="n">
         <v>154</v>
       </c>
-      <c r="C49" t="n">
-        <v>-55.16146353430112</v>
-      </c>
-      <c r="D49" t="n">
-        <v>380.1107633603912</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1714,12 +1416,6 @@
       <c r="B50" t="n">
         <v>154</v>
       </c>
-      <c r="C50" t="n">
-        <v>-70.47957703015868</v>
-      </c>
-      <c r="D50" t="n">
-        <v>391.3581112495831</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1728,12 +1424,6 @@
       <c r="B51" t="n">
         <v>155</v>
       </c>
-      <c r="C51" t="n">
-        <v>-77.43573425549353</v>
-      </c>
-      <c r="D51" t="n">
-        <v>392.590726716648</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1742,12 +1432,6 @@
       <c r="B52" t="n">
         <v>155</v>
       </c>
-      <c r="C52" t="n">
-        <v>-79.27287783552715</v>
-      </c>
-      <c r="D52" t="n">
-        <v>390.0958235123881</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1756,12 +1440,6 @@
       <c r="B53" t="n">
         <v>155</v>
       </c>
-      <c r="C53" t="n">
-        <v>-77.78233669060548</v>
-      </c>
-      <c r="D53" t="n">
-        <v>367.6901470321844</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1770,12 +1448,6 @@
       <c r="B54" t="n">
         <v>156</v>
       </c>
-      <c r="C54" t="n">
-        <v>-75.04382596232981</v>
-      </c>
-      <c r="D54" t="n">
-        <v>375.5435884587087</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1784,12 +1456,6 @@
       <c r="B55" t="n">
         <v>156</v>
       </c>
-      <c r="C55" t="n">
-        <v>-60.92234285668302</v>
-      </c>
-      <c r="D55" t="n">
-        <v>381.6946714610437</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1798,12 +1464,6 @@
       <c r="B56" t="n">
         <v>156</v>
       </c>
-      <c r="C56" t="n">
-        <v>-76.7494381547759</v>
-      </c>
-      <c r="D56" t="n">
-        <v>373.9238041459069</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1812,12 +1472,6 @@
       <c r="B57" t="n">
         <v>157</v>
       </c>
-      <c r="C57" t="n">
-        <v>-89.20500895884156</v>
-      </c>
-      <c r="D57" t="n">
-        <v>384.4940158616038</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1825,12 +1479,6 @@
       </c>
       <c r="B58" t="n">
         <v>157</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-74.43807878094991</v>
-      </c>
-      <c r="D58" t="n">
-        <v>362.4692635312307</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
+++ b/po_analysis_by_asin/B09VH8B1XW_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,6 +843,38 @@
         <v>192</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -854,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,6 +1026,14 @@
         <v>192</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1005,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1030,7 +1070,7 @@
         <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>125</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
@@ -1038,7 +1078,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>126</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
@@ -1046,7 +1086,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>126</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
@@ -1054,7 +1094,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1102,7 @@
         <v>44969.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
@@ -1070,7 +1110,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
@@ -1078,7 +1118,7 @@
         <v>44983.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>128</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
@@ -1086,7 +1126,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>128</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10">
@@ -1094,7 +1134,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
@@ -1102,7 +1142,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>129</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -1110,7 +1150,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>137</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13">
@@ -1118,7 +1158,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1126,7 +1166,7 @@
         <v>45186.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>139</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -1134,7 +1174,7 @@
         <v>45193.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>139</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1182,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>139</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1150,7 +1190,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -1158,7 +1198,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
@@ -1166,7 +1206,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20">
@@ -1174,7 +1214,7 @@
         <v>45228.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>141</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -1182,7 +1222,7 @@
         <v>45235.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -1190,7 +1230,7 @@
         <v>45242.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -1198,7 +1238,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>142</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
@@ -1206,7 +1246,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>142</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
@@ -1214,7 +1254,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -1222,7 +1262,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>143</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -1230,7 +1270,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -1238,7 +1278,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1286,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30">
@@ -1254,7 +1294,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>146</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -1262,7 +1302,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>146</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -1270,7 +1310,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>147</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -1278,7 +1318,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>147</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -1286,7 +1326,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35">
@@ -1294,7 +1334,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>148</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -1302,7 +1342,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -1310,7 +1350,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>149</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -1318,7 +1358,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39">
@@ -1326,7 +1366,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>149</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40">
@@ -1334,7 +1374,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41">
@@ -1342,7 +1382,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
@@ -1350,7 +1390,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1358,7 +1398,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>151</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
@@ -1366,7 +1406,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>151</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -1374,7 +1414,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>152</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
@@ -1382,7 +1422,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>152</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1390,7 +1430,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>153</v>
+        <v>673</v>
       </c>
     </row>
     <row r="48">
@@ -1398,7 +1438,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>153</v>
+        <v>886</v>
       </c>
     </row>
     <row r="49">
@@ -1406,7 +1446,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -1414,71 +1454,103 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>156</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>157</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>157</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45732.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45739.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45746.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
